--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H2">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="I2">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J2">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N2">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q2">
-        <v>1.982256089704629</v>
+        <v>4.133094019788444</v>
       </c>
       <c r="R2">
-        <v>1.982256089704629</v>
+        <v>37.19784617809599</v>
       </c>
       <c r="S2">
-        <v>0.0008910330148726587</v>
+        <v>0.001791588460803508</v>
       </c>
       <c r="T2">
-        <v>0.0008910330148726587</v>
+        <v>0.001791588460803508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H3">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="I3">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J3">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N3">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q3">
-        <v>63.66749636171262</v>
+        <v>78.16303743870176</v>
       </c>
       <c r="R3">
-        <v>63.66749636171262</v>
+        <v>703.4673369483158</v>
       </c>
       <c r="S3">
-        <v>0.02861882555297082</v>
+        <v>0.03388163813019152</v>
       </c>
       <c r="T3">
-        <v>0.02861882555297082</v>
+        <v>0.03388163813019151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H4">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="I4">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J4">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q4">
-        <v>17.8539727120891</v>
+        <v>21.79239235340189</v>
       </c>
       <c r="R4">
-        <v>17.8539727120891</v>
+        <v>196.131531180617</v>
       </c>
       <c r="S4">
-        <v>0.008025440918422109</v>
+        <v>0.009446433709643962</v>
       </c>
       <c r="T4">
-        <v>0.008025440918422109</v>
+        <v>0.009446433709643961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.208459423026426</v>
+        <v>0.237305</v>
       </c>
       <c r="H5">
-        <v>0.208459423026426</v>
+        <v>0.711915</v>
       </c>
       <c r="I5">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J5">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N5">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O5">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P5">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q5">
-        <v>0.719914481436199</v>
+        <v>1.400272890853333</v>
       </c>
       <c r="R5">
-        <v>0.719914481436199</v>
+        <v>12.60245601768</v>
       </c>
       <c r="S5">
-        <v>0.0003236047926280638</v>
+        <v>0.0006069817771426387</v>
       </c>
       <c r="T5">
-        <v>0.0003236047926280638</v>
+        <v>0.0006069817771426386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.208459423026426</v>
+        <v>0.237305</v>
       </c>
       <c r="H6">
-        <v>0.208459423026426</v>
+        <v>0.711915</v>
       </c>
       <c r="I6">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J6">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N6">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O6">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P6">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q6">
-        <v>23.12272004895857</v>
+        <v>26.48127089975333</v>
       </c>
       <c r="R6">
-        <v>23.12272004895857</v>
+        <v>238.33143809778</v>
       </c>
       <c r="S6">
-        <v>0.01039376650892269</v>
+        <v>0.01147894026708791</v>
       </c>
       <c r="T6">
-        <v>0.01039376650892269</v>
+        <v>0.01147894026708791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.208459423026426</v>
+        <v>0.237305</v>
       </c>
       <c r="H7">
-        <v>0.208459423026426</v>
+        <v>0.711915</v>
       </c>
       <c r="I7">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J7">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N7">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O7">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P7">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q7">
-        <v>6.484194233710196</v>
+        <v>7.383160434581667</v>
       </c>
       <c r="R7">
-        <v>6.484194233710196</v>
+        <v>66.448443911235</v>
       </c>
       <c r="S7">
-        <v>0.00291467442934864</v>
+        <v>0.003200407485415634</v>
       </c>
       <c r="T7">
-        <v>0.00291467442934864</v>
+        <v>0.003200407485415633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.5094222590766</v>
+        <v>14.58625866666667</v>
       </c>
       <c r="H8">
-        <v>14.5094222590766</v>
+        <v>43.758776</v>
       </c>
       <c r="I8">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="J8">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N8">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O8">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P8">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q8">
-        <v>50.10828030670415</v>
+        <v>86.06958382633245</v>
       </c>
       <c r="R8">
-        <v>50.10828030670415</v>
+        <v>774.626254436992</v>
       </c>
       <c r="S8">
-        <v>0.02252389704017496</v>
+        <v>0.03730891977562861</v>
       </c>
       <c r="T8">
-        <v>0.02252389704017496</v>
+        <v>0.03730891977562861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.5094222590766</v>
+        <v>14.58625866666667</v>
       </c>
       <c r="H9">
-        <v>14.5094222590766</v>
+        <v>43.758776</v>
       </c>
       <c r="I9">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="J9">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N9">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O9">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P9">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q9">
-        <v>1609.413017161742</v>
+        <v>1627.705556839825</v>
       </c>
       <c r="R9">
-        <v>1609.413017161742</v>
+        <v>14649.35001155843</v>
       </c>
       <c r="S9">
-        <v>0.723438379281565</v>
+        <v>0.7055679060911484</v>
       </c>
       <c r="T9">
-        <v>0.723438379281565</v>
+        <v>0.7055679060911484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.5094222590766</v>
+        <v>14.58625866666667</v>
       </c>
       <c r="H10">
-        <v>14.5094222590766</v>
+        <v>43.758776</v>
       </c>
       <c r="I10">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="J10">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N10">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O10">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P10">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q10">
-        <v>451.3200256476018</v>
+        <v>453.8155027340649</v>
       </c>
       <c r="R10">
-        <v>451.3200256476018</v>
+        <v>4084.339524606584</v>
       </c>
       <c r="S10">
-        <v>0.202870378461095</v>
+        <v>0.1967171843029378</v>
       </c>
       <c r="T10">
-        <v>0.202870378461095</v>
+        <v>0.1967171843029378</v>
       </c>
     </row>
   </sheetData>
